--- a/0.SEGUIMIENTO_MAPA.xlsx
+++ b/0.SEGUIMIENTO_MAPA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\01.GS\09.Map_revit\Map_Whose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poetb\Desktop\Bodega\Map_Whose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F32A5D6-5980-481A-8C7D-DDA4DC719BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D98C5E-681A-44AB-B97E-770846A95FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>SEGUIMIENTO MAPA</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>CUANDO SE INICIE, EDITAR EL EXCEL, ACTUALIZAR EL GITHUB Y CUANDO SE TERMINE PONERLO EN EL EXCEL Y ACTUALIZAR GITHUB</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>SIN INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areas de imágenes señadas en rojo no especificadas con nomenclatura o se notan como error, revisar </t>
   </si>
 </sst>
 </file>
@@ -106,15 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,8 +153,113 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>343156</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92280C14-5256-2C0C-D919-E5C1B94DCE8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="343156" y="1668780"/>
+          <a:ext cx="1478024" cy="1075748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99427</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BC6631-D069-E22A-4CDB-580DE7E5AB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2065387" y="1661160"/>
+          <a:ext cx="1523633" cy="1093007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,46 +558,47 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="116.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -481,8 +608,11 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -492,8 +622,11 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,8 +636,11 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -514,8 +650,11 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -525,8 +664,11 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -535,16 +677,18 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -552,8 +696,11 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -562,7 +709,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -573,11 +720,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -585,7 +727,13 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/0.SEGUIMIENTO_MAPA.xlsx
+++ b/0.SEGUIMIENTO_MAPA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poetb\Desktop\Bodega\Map_Whose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\01.GS\09.Map_revit\Map_Whose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D98C5E-681A-44AB-B97E-770846A95FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003338C-C01D-4B03-9BD0-F5849E0D8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
+    <workbookView xWindow="-28920" yWindow="-13530" windowWidth="29040" windowHeight="15720" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,18 +124,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,162 +559,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81F392-955F-4CF0-8267-88F20AF3784E}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="116.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="6">
+        <v>45271</v>
+      </c>
+      <c r="J1" s="6">
+        <v>45272</v>
+      </c>
+      <c r="K1" s="6">
+        <v>45273</v>
+      </c>
+      <c r="L1" s="6">
+        <v>45274</v>
+      </c>
+      <c r="M1" s="6">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -718,9 +734,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A12:G12"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>

--- a/0.SEGUIMIENTO_MAPA.xlsx
+++ b/0.SEGUIMIENTO_MAPA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\01.GS\09.Map_revit\Map_Whose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poetb\Desktop\Bodega\Map_Whose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003338C-C01D-4B03-9BD0-F5849E0D8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19530B-B656-41D5-80E5-22F408F42DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-13530" windowWidth="29040" windowHeight="15720" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>SEGUIMIENTO MAPA</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t xml:space="preserve">Areas de imágenes señadas en rojo no especificadas con nomenclatura o se notan como error, revisar </t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Formatos de zonas, seccion y detalles porfavor anotar tipo de avion (el piso y la altura para modificar), nomenclatura, los espacios donde no hay aviones y de mas comentarios importantes</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -133,13 +139,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -559,20 +571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81F392-955F-4CF0-8267-88F20AF3784E}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -585,23 +597,23 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <v>45271</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="4">
         <v>45272</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>45273</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <v>45274</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>45275</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -612,86 +624,90 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -702,54 +718,68 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+    <row r="10" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/0.SEGUIMIENTO_MAPA.xlsx
+++ b/0.SEGUIMIENTO_MAPA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poetb\Desktop\Bodega\Map_Whose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\01.GS\09.Map_revit\Map_Whose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19530B-B656-41D5-80E5-22F408F42DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED9E4B-2C42-4A64-8596-6E2A8E42F799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
+    <workbookView xWindow="-28920" yWindow="-13530" windowWidth="29040" windowHeight="15720" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>SEGUIMIENTO MAPA</t>
   </si>
@@ -53,9 +53,6 @@
     <t>PONER AVIONES (POR TIPO) DONDE APLIQUE (NIVEL 1, 2, 3)</t>
   </si>
   <si>
-    <t>GENERAR UN FORMATO DE SECCION PARA TOMAR NOTAS DURANTE INVENTARIO</t>
-  </si>
-  <si>
     <t>IDENTIFICAR AREAS PARA ORIENTAR AL PUBLICO (EMPAQUE, SHIPPING, RECEIVING, DROPSHIPS, PICKING…)</t>
   </si>
   <si>
@@ -83,10 +80,16 @@
     <t xml:space="preserve">Areas de imágenes señadas en rojo no especificadas con nomenclatura o se notan como error, revisar </t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Formatos de zonas, seccion y detalles porfavor anotar tipo de avion (el piso y la altura para modificar), nomenclatura, los espacios donde no hay aviones y de mas comentarios importantes</t>
+  </si>
+  <si>
+    <t>GENERAR UN FORMATO POR SECCION PARA TOMAR NOTAS DURANTE INVENTARIO</t>
+  </si>
+  <si>
+    <t>FORMATO PLANTA-PERFIL DE SECCION PARA TOMAR NOTAS DURANTE INVENTARIO</t>
+  </si>
+  <si>
+    <t>ok 1/4</t>
   </si>
 </sst>
 </file>
@@ -140,9 +143,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -151,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -175,13 +178,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>343156</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -225,13 +228,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>99427</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>10967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -275,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,31 +574,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81F392-955F-4CF0-8267-88F20AF3784E}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" customWidth="1"/>
+    <col min="1" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4">
         <v>45271</v>
@@ -613,104 +616,104 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -718,68 +721,80 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/0.SEGUIMIENTO_MAPA.xlsx
+++ b/0.SEGUIMIENTO_MAPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\01.GS\09.Map_revit\Map_Whose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED9E4B-2C42-4A64-8596-6E2A8E42F799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2526A630-19E5-4DB1-A625-E6377A78B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-13530" windowWidth="29040" windowHeight="15720" xr2:uid="{1A723B68-A618-4FC2-B49F-C527BEC4ED7D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SEGUIMIENTO MAPA</t>
   </si>
@@ -44,27 +44,12 @@
     <t>PUNTOS PARA TENER EN CUENTA:</t>
   </si>
   <si>
-    <t>GENERACION DE MAPAS, CORTES, VISUALIZACIONES PARA EL PUBLICO</t>
-  </si>
-  <si>
-    <t>DIBUJO DE PLANIMETRIA ZONAS DE INTERES</t>
-  </si>
-  <si>
-    <t>PONER AVIONES (POR TIPO) DONDE APLIQUE (NIVEL 1, 2, 3)</t>
-  </si>
-  <si>
-    <t>IDENTIFICAR AREAS PARA ORIENTAR AL PUBLICO (EMPAQUE, SHIPPING, RECEIVING, DROPSHIPS, PICKING…)</t>
-  </si>
-  <si>
     <t>INCLUIR FECHAS</t>
   </si>
   <si>
     <t>CUANDO SE INICIE, EDITAR EL EXCEL, ACTUALIZAR EL GITHUB Y CUANDO SE TERMINE PONERLO EN EL EXCEL Y ACTUALIZAR GITHUB</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>SIN INFORMACIÓN</t>
   </si>
   <si>
@@ -83,20 +68,231 @@
     <t>Formatos de zonas, seccion y detalles porfavor anotar tipo de avion (el piso y la altura para modificar), nomenclatura, los espacios donde no hay aviones y de mas comentarios importantes</t>
   </si>
   <si>
-    <t>GENERAR UN FORMATO POR SECCION PARA TOMAR NOTAS DURANTE INVENTARIO</t>
-  </si>
-  <si>
-    <t>FORMATO PLANTA-PERFIL DE SECCION PARA TOMAR NOTAS DURANTE INVENTARIO</t>
-  </si>
-  <si>
     <t>ok 1/4</t>
+  </si>
+  <si>
+    <t>orden de vistas; de izquierda a derecha</t>
+  </si>
+  <si>
+    <t>1.GENERACION DE MAPAS, CORTES, VISUALIZACIONES PARA EL PUBLICO</t>
+  </si>
+  <si>
+    <t>1.1.FORMATO PLANTA-PERFIL POR SECCION PARA TOMAR NOTAS DURANTE INVENTARIO</t>
+  </si>
+  <si>
+    <r>
+      <t>2.CATEGORIZAR SECCIONES POR CLIENTES -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOTAS 12/12 CNM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.2.DIBUJO DE PLANIMETRIA ZONAS DE INTERES - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTAS 12/12 CNM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OK - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>revisar comentarios 12/12/2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.PONER AVIONES (POR TIPO) DONDE APLIQUE (NIVEL 1, 2, 3) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTAS 12/12 CNM</t>
+    </r>
+  </si>
+  <si>
+    <t>4.IDENTIFICAR AREAS PARA ORIENTAR AL PUBLICO (EMPAQUE, SHIPPING, RECEIVING, DROPSHIPS, PICKING…)</t>
+  </si>
+  <si>
+    <t>PLANTA/PERFIL DESDE 219 - 238</t>
+  </si>
+  <si>
+    <t>PLANTA/PERFIL DESDE 215 - 218</t>
+  </si>
+  <si>
+    <t>PLANTA/PERFIL DESDE 12 - 28</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1.ZONA LOCACION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>219 - 238</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VISTA DESDE EL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NORTE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.ZONA LOCACION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">215 - 218 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VISTA DESDE EL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OESTE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.1.ZONA LOCACION</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12 - 28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VISTA DESDE EL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEISY</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +304,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,6 +355,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -155,6 +370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,13 +394,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>343156</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -228,13 +444,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>99427</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>10967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -574,31 +790,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81F392-955F-4CF0-8267-88F20AF3784E}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I1" s="4">
         <v>45271</v>
@@ -617,182 +833,219 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
   </mergeCells>
